--- a/workloss_ver1.xlsx
+++ b/workloss_ver1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\2024研究奥田\MAX\VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5BA224-4F24-4312-A5C6-1AB38312E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9C248-F1A5-4EDD-B27F-DF8820AFDC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027A7D39-30CD-4122-96BE-25B7F4471C85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{027A7D39-30CD-4122-96BE-25B7F4471C85}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="13">
   <si>
     <t>NO05</t>
   </si>
@@ -70,6 +71,12 @@
   </si>
   <si>
     <t>NO05人</t>
+  </si>
+  <si>
+    <t>共通稼働開始時間</t>
+  </si>
+  <si>
+    <t>共通稼働終了時間</t>
   </si>
 </sst>
 </file>
@@ -455,11 +462,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9BE626-8EB1-4116-A4BE-2CBA52FEE24E}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83009486-2B1E-4E81-8235-64FE06D5F5C6}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
